--- a/db/queries/predicted/NTSB-NATIVE-NATIVE-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/NTSB-NATIVE-NATIVE-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -573,14 +563,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'vin'}, {'table source item': '1'}, {'table': 'gv'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -642,14 +627,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'fire'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -711,14 +691,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'crashyear'}, {'table source item': '1'}, {'table': 'crash'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -780,14 +755,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'edrevent'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -849,14 +819,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'predicate': '1'}, {'column': 'emsdata'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -918,14 +883,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'jkwgt'}, {'where': '1'}, {'predicate': '1'}, {'column': 'category'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -987,14 +947,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'jkwgt3'}, {'table source item': '1'}, {'table': 'jkwgt'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1056,14 +1011,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'category'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'jkwgt5'}, {'table source item': '1'}, {'table': 'jkwgt'}, {'group by': '1'}, {'column': 'category'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1125,14 +1075,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'gv'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'alctestresult'}, {'predicate': '1'}, {'column': 'alctestresult'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1194,14 +1139,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'column': 'model'}, {'select element': '1'}, {'column': 'curbwt'}, {'table source item': '1'}, {'table': 'gv'}, {'join': '1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'curbwt'}, {'predicate': '1'}, {'column': 'curbwt'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1263,14 +1203,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'insptype'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'group by': '1'}, {'column': 'insptype'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1332,14 +1267,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'lightcond'}, {'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'gv'}, {'group by': '1'}, {'column': 'lightcond'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1401,14 +1331,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'pardrug'}, {'predicate': '1'}, {'column': 'towed'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1470,14 +1395,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'rumbroad'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'group by': '1'}, {'column': 'rumbroad'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1539,14 +1459,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'speedlimit'}, {'select element': '1'}, {'column': 'maxspeed'}, {'select element': '1'}, {'column': 'maxspeed'}, {'column': 'speedlimit'}, {'table source item': '1'}, {'table': 'gv'}, {'join': '1'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'function': 'max'}, {'column': 'pvalue'}, {'table source item': '1'}, {'table': 'edrprecrash'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'pcode'}, {'predicate': '1'}, {'column': 'pvalue'}, {'group by': '1'}, {'column': 'caseid'}, {'group by': '1'}, {'column': 'vehno'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'predicate': '1'}, {'column': 'speedlimit'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1608,14 +1523,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'strklength'}, {'table source item': '1'}, {'table': 'gv'}, {'where': '1'}, {'predicate': '1'}, {'column': 'strklength'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1677,14 +1587,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'where': '1'}, {'predicate': '1'}, {'column': 'trafdev'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1746,14 +1651,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'intmag'}, {'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'intrusion'}, {'group by': '1'}, {'column': 'intmag'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1815,14 +1715,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'intmag'}, {'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'intrusion'}, {'group by': '1'}, {'column': 'intmag'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1884,14 +1779,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'intcomp'}, {'select element': '1'}, {'column': 'intmag'}, {'select element': '1'}, {'column': 'intdirect'}, {'table source item': '1'}, {'table': 'intrusion'}, {'where': '1'}, {'predicate': '1'}, {'column': 'caseid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -1953,14 +1843,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'intdirect'}, {'table source item': '1'}, {'table': 'intrusion'}, {'where': '1'}, {'predicate': '1'}, {'column': 'caseid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2022,14 +1907,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'region'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'injury'}, {'group by': '1'}, {'column': 'region'}]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2091,14 +1971,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'ais'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'injury'}, {'group by': '1'}, {'column': 'ais'}]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2160,14 +2035,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'ics'}, {'where': '1'}, {'predicate': '1'}, {'column': 'soe'}]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2229,14 +2099,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'region'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'injury'}, {'where': '1'}, {'predicate': '1'}, {'column': 'ais'}, {'group by': '1'}, {'column': 'region'}]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2298,14 +2163,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'ais'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'injury'}, {'where': '1'}, {'predicate': '1'}, {'column': 'region'}, {'group by': '1'}, {'column': 'ais'}]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2367,14 +2227,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'injury'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'predicate': '1'}, {'column': 'ais'}, {'group by': '1'}, {'column': 'make'}]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2436,14 +2291,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'injury'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'predicate': '1'}, {'column': 'region'}, {'group by': '1'}, {'column': 'make'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2505,14 +2355,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'notified'}, {'table source item': '1'}, {'table': 'emscare'}, {'where': '1'}, {'predicate': '1'}, {'column': 'notified'}]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2574,14 +2419,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'scenearr'}, {'table source item': '1'}, {'table': 'emscare'}, {'where': '1'}, {'predicate': '1'}, {'column': 'scenearr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2643,14 +2483,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'scenedep'}, {'table source item': '1'}, {'table': 'emscare'}, {'where': '1'}, {'predicate': '1'}, {'column': 'scenedep'}]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2712,14 +2547,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'arrmedical'}, {'table source item': '1'}, {'table': 'emscare'}, {'where': '1'}, {'predicate': '1'}, {'column': 'arrmedical'}]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2781,14 +2611,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'notified'}, {'select element': '1'}, {'column': 'scenearr'}, {'select element': '1'}, {'column': 'scenedep'}, {'select element': '1'}, {'column': 'arrmedical'}, {'table source item': '1'}, {'table': 'emscare'}, {'where': '1'}, {'predicate': '1'}, {'column': 'emstype'}]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2850,14 +2675,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'make'}, {'predicate': '1'}, {'column': 'model'}]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -2919,14 +2739,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'modelyr'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'group by': '1'}, {'column': 'modelyr'}, {'order by': '1'}, {'column': 'modelyr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -2988,14 +2803,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'modelyear'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'group by': '1'}, {'column': 'make'}, {'order by': '1'}, {'column': 'avgyear'}]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3057,14 +2867,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'where': '1'}, {'predicate': '1'}, {'column': 'drpresent'}]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3126,14 +2931,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'where': '1'}, {'predicate': '1'}, {'column': 'zip'}]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3195,14 +2995,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'drugtest'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'gv'}, {'group by': '1'}, {'column': 'drugtest'}]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3264,14 +3059,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'glazpre'}, {'table source item': '1'}, {'table': 'glazing'}]</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -3333,14 +3123,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'cdcplane'}, {'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'cdc'}, {'group by': '1'}, {'column': 'cdcplane'}]</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -3402,14 +3187,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'interior'}, {'where': '1'}, {'predicate': '1'}, {'column': 'glazingcont'}]</t>
-        </is>
-      </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -3471,14 +3251,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'recfront1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'where': '1'}, {'predicate': '1'}, {'column': 'recfront1'}, {'group by': '1'}, {'column': 'recfront1'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -3540,14 +3315,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'glazing'}, {'where': '1'}, {'predicate': '1'}, {'column': 'glazloc'}]</t>
-        </is>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -3609,14 +3379,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'glazimp'}, {'select element': '1'}, {'function': 'count'}, {'column': 'vin'}, {'table source item': '1'}, {'table': 'glazing'}, {'join': '1'}, {'table source item': '1'}, {'table': 'gv'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'glazimp'}, {'order by': '1'}, {'column': 'glazimp'}]</t>
-        </is>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -3678,14 +3443,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'adapt'}]</t>
-        </is>
-      </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -3747,14 +3507,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pvalue'}, {'table source item': '1'}, {'table': 'edrpostcrash'}, {'where': '1'}, {'predicate': '1'}, {'column': 'pcode'}, {'order by': '1'}, {'column': 'pvalue'}]</t>
-        </is>
-      </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -3816,14 +3571,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'crashmonth'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'crash'}, {'group by': '1'}, {'column': 'crashmonth'}, {'order by': '1'}, {'column': 'crashmonth'}]</t>
-        </is>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -3885,14 +3635,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'function': 'max'}, {'column': 'pvalue'}, {'table source item': '1'}, {'table': 'edrprecrash'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'pcode'}, {'predicate': '1'}, {'column': 'pvalue'}, {'predicate': '1'}, {'column': 'pvalue'}, {'group by': '1'}, {'column': 'caseid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -3954,14 +3699,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'column': 'model'}, {'select element': '1'}, {'function': 'max'}, {'column': 'pvalue'}, {'table source item': '1'}, {'table': 'edrprecrash'}, {'join': '1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'pcode'}, {'predicate': '1'}, {'column': 'pvalue'}, {'predicate': '1'}, {'column': 'pvalue'}, {'group by': '1'}, {'column': 'caseid'}, {'group by': '1'}, {'column': 'vehno'}, {'group by': '1'}, {'column': 'make'}, {'group by': '1'}, {'column': 'model'}, {'order by': '1'}, {'function': 'max'}, {'column': 'pvalue'}]</t>
-        </is>
-      </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -4023,14 +3763,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'table source item': '1'}, {'table': 'vpicdecode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -4092,14 +3827,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'ics_type'}, {'table source item': '1'}, {'table': 'ics'}]</t>
-        </is>
-      </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -4161,14 +3891,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'bri'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'ics'}, {'group by': '1'}, {'column': 'bri'}]</t>
-        </is>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -4230,14 +3955,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'age'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'predicate': '1'}, {'column': 'age'}]</t>
-        </is>
-      </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
@@ -4299,14 +4019,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'age'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'height'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'age'}, {'predicate': '1'}, {'column': 'height'}, {'group by': '1'}, {'column': 'age'}, {'order by': '1'}, {'column': 'age'}]</t>
-        </is>
-      </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
@@ -4368,14 +4083,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'predicate': '1'}, {'column': 'fetalmort'}]</t>
-        </is>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
@@ -4437,14 +4147,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'predicate': '1'}, {'column': 'beltavail'}]</t>
-        </is>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
@@ -4506,14 +4211,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'predicate': '1'}, {'column': 'beltuse'}]</t>
-        </is>
-      </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
@@ -4575,14 +4275,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'beltuse'}, {'predicate': '1'}, {'column': 'beltavail'}]</t>
-        </is>
-      </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
@@ -4644,14 +4339,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'beltuse'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'predicate': '1'}, {'column': 'mortality'}, {'group by': '1'}, {'column': 'beltuse'}]</t>
-        </is>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
@@ -4713,14 +4403,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'beltuse'}, {'select element': '1'}, {'column': 'totalcount'}, {'select element': '1'}, {'column': 'mortalcount'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'beltuse'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'occ'}, {'where': '1'}, {'predicate': '1'}, {'column': 'mortality'}, {'group by': '1'}, {'column': 'beltuse'}, {'join': '1'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'beltuse'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'occ'}, {'group by': '1'}, {'column': 'beltuse'}, {'predicate': '1'}, {'column': 'beltuse'}, {'column': 'beltuse'}]</t>
-        </is>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
@@ -4782,14 +4467,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'pdof'}, {'predicate': '1'}, {'column': 'pdof'}]</t>
-        </is>
-      </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
@@ -4851,14 +4531,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'headingang'}, {'predicate': '1'}, {'column': 'headingang'}]</t>
-        </is>
-      </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
@@ -4920,14 +4595,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'cmax'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'predicate': '1'}, {'negation': '1'}, {'column': 'cmax'}, {'order by': '1'}, {'column': 'cmax'}]</t>
-        </is>
-      </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
@@ -4989,14 +4659,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'predicate': '1'}, {'column': 'damapillar'}]</t>
-        </is>
-      </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
@@ -5058,14 +4723,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'predicate': '1'}, {'column': 'damothpillar'}]</t>
-        </is>
-      </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
@@ -5127,14 +4787,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'doorsilldiff'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'predicate': '1'}, {'negation': '1'}, {'column': 'doorsilldiff'}]</t>
-        </is>
-      </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
@@ -5196,14 +4851,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'dvbarrier'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'predicate': '1'}, {'column': 'dvbarrier'}, {'order by': '1'}, {'column': 'dvbarrier'}]</t>
-        </is>
-      </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
@@ -5265,14 +4915,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'cmax'}, {'select element': '1'}, {'column': 'c1'}, {'select element': '1'}, {'column': 'c2'}, {'select element': '1'}, {'column': 'c3'}, {'select element': '1'}, {'column': 'c4'}, {'select element': '1'}, {'column': 'c5'}, {'select element': '1'}, {'column': 'c6'}, {'table source item': '1'}, {'table': 'cdc'}, {'where': '1'}, {'predicate': '1'}, {'negation': '1'}, {'column': 'cmax'}]</t>
-        </is>
-      </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
@@ -5334,14 +4979,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'edrsummno'}, {'table source item': '1'}, {'table': 'edrevent'}, {'group by': '1'}, {'column': 'caseid'}, {'group by': '1'}, {'column': 'vehno'}, {'group by': '1'}, {'column': 'edrsummno'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
@@ -5403,14 +5043,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'edreventno'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'edrprecrash'}, {'join': '1'}, {'table source item': '1'}, {'table': 'edrevent'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'edreventno'}, {'column': 'edreventno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'caseid'}, {'group by': '1'}, {'column': 'edreventno'}, {'order by': '1'}, {'column': 'caseid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
@@ -5472,14 +5107,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'column': 'model'}, {'select element': '1'}, {'column': 'modelyear'}, {'select element': '1'}, {'column': 'igcycrash'}, {'table source item': '1'}, {'table': 'edrevent'}, {'join': '1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'igcycrash'}, {'predicate': '1'}, {'column': 'igcycrash'}, {'order by': '1'}, {'column': 'modelyear'}]</t>
-        </is>
-      </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
@@ -5541,14 +5171,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'igcycrash'}, {'table source item': '1'}, {'table': 'edrevent'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'igcycrash'}, {'predicate': '1'}, {'column': 'igcycrash'}]</t>
-        </is>
-      </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
@@ -5610,14 +5235,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'occno'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'injury'}, {'group by': '1'}, {'column': 'caseid'}, {'group by': '1'}, {'column': 'vehno'}, {'group by': '1'}, {'column': 'occno'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}, {'column': 'injno'}, {'order by': '1'}, {'column': 'injury_count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
@@ -5679,14 +5299,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'fueltype'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'fire'}, {'join': '1'}, {'table source item': '1'}, {'table': 'fuel'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'fueltype'}]</t>
-        </is>
-      </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
@@ -5748,14 +5363,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sex'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'occ'}, {'join': '1'}, {'table source item': '1'}, {'table': 'eject'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'predicate': '1'}, {'column': 'occno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'sex'}]</t>
-        </is>
-      </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
@@ -5817,14 +5427,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'group by': '1'}, {'column': 'make'}, {'order by': '1'}, {'column': 'crashcount'}]</t>
-        </is>
-      </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
@@ -5886,14 +5491,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'avoid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'avail'}]</t>
-        </is>
-      </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
@@ -5955,14 +5555,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'equip'}, {'table source item': '1'}, {'table': 'avoid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'avail'}, {'group by': '1'}, {'column': 'equip'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
@@ -6024,14 +5619,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'function': 'count'}, {'column': 'equip'}, {'table source item': '1'}, {'table': 'avoid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'avail'}, {'group by': '1'}, {'column': 'caseid'}, {'group by': '1'}, {'column': 'vehno'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
@@ -6093,14 +5683,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'table source item': '1'}, {'table': 'tiredamage'}]</t>
-        </is>
-      </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
@@ -6162,14 +5747,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tireplac'}, {'where': '1'}, {'predicate': '1'}, {'column': 'gvwr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
@@ -6231,14 +5811,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'gawrfront'}, {'select element': '1'}, {'column': 'gawrrear'}, {'table source item': '1'}, {'table': 'tireplac'}, {'where': '1'}, {'predicate': '1'}, {'column': 'gvwr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
@@ -6300,14 +5875,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'recfrpress1'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'recrrpress1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'where': '1'}, {'predicate': '1'}, {'column': 'gvwr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
@@ -6369,14 +5939,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'recfront1'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'recfrpress1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'group by': '1'}, {'column': 'recfront1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
@@ -6438,14 +6003,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'recfront1'}, {'select element': '1'}, {'column': 'recrear1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'make'}, {'predicate': '1'}, {'column': 'model'}]</t>
-        </is>
-      </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
@@ -6507,14 +6067,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'recfront1'}, {'select element': '1'}, {'column': 'recrear1'}, {'select element': '1'}, {'column': 'recfrpress1'}, {'select element': '1'}, {'column': 'recrrpress1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'make'}, {'predicate': '1'}, {'column': 'model'}, {'predicate': '1'}, {'column': 'modelyear'}]</t>
-        </is>
-      </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
@@ -6576,14 +6131,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'tire'}, {'where': '1'}, {'predicate': '1'}, {'column': 'tiremodel'}]</t>
-        </is>
-      </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
@@ -6645,14 +6195,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'tiremodel'}, {'table source item': '1'}, {'table': 'tire'}, {'join': '1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'make'}, {'predicate': '1'}, {'column': 'model'}]</t>
-        </is>
-      </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
@@ -6714,14 +6259,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'tiremodel'}, {'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'tire'}, {'group by': '1'}, {'column': 'tiremodel'}, {'order by': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
@@ -6783,14 +6323,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'tiremodel'}, {'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'tire'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tiredamage'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'damage'}, {'predicate': '1'}, {'column': 'damage'}, {'group by': '1'}, {'column': 'tiremodel'}, {'order by': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'column': 'vehno'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
@@ -6852,14 +6387,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'tiresize'}, {'select element': '1'}, {'column': 'recfront1'}, {'table source item': '1'}, {'table': 'tire'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'tireloc'}, {'predicate': '1'}, {'column': 'tiresize'}, {'column': 'recfront1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
@@ -6921,14 +6451,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'caseid'}, {'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'column': 'model'}, {'select element': '1'}, {'column': 'vehno'}, {'select element': '1'}, {'column': 'tiresize'}, {'select element': '1'}, {'column': 'recfront1'}, {'table source item': '1'}, {'table': 'tire'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'join': '1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'tireloc'}, {'predicate': '1'}, {'column': 'tiresize'}, {'column': 'recfront1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
@@ -6990,14 +6515,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'table source item': '1'}, {'table': 'tire'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tireplac'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'join': '1'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'tireloc'}, {'predicate': '1'}, {'column': 'tiresize'}, {'column': 'recfront1'}, {'group by': '1'}, {'column': 'make'}, {'order by': '1'}, {'function': 'count'}, {'column': 'caseid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
@@ -7059,14 +6579,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'distract'}]</t>
-        </is>
-      </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
@@ -7128,14 +6643,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'distract'}, {'join': '1'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'caseid'}, {'table source item': '1'}, {'table': 'childseat'}, {'where': '1'}, {'predicate': '1'}, {'negation': '1'}, {'column': 'occno'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}]</t>
-        </is>
-      </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
@@ -7197,14 +6707,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'column': 'model'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'childseat'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'make'}, {'group by': '1'}, {'column': 'model'}, {'order by': '1'}, {'column': 'vehicle_count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
@@ -7266,14 +6771,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'column': 'model'}, {'select element': '1'}, {'function': 'count'}, {'select element': '1'}, {'function': 'count'}, {'column': 'distractn'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'childseat'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'join': '1'}, {'table source item': '1'}, {'table': 'distract'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'make'}, {'group by': '1'}, {'column': 'model'}, {'order by': '1'}, {'column': 'distraction_count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
@@ -7335,14 +6835,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'function': 'count'}, {'select element': '1'}, {'function': 'count'}, {'column': 'distractn'}, {'select element': '1'}, {'function': 'count'}, {'column': 'distractn'}, {'function': 'function'}, {'function': 'count'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'distract'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'make'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}, {'order by': '1'}, {'column': 'prop_distract'}]</t>
-        </is>
-      </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
@@ -7402,11 +6897,6 @@
       <c r="N101" t="inlineStr">
         <is>
           <t>NATIVE</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'make'}, {'select element': '1'}, {'function': 'count'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'fire'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'fire'}, {'function': 'function'}, {'function': 'count'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'vpicdecode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'fire'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'caseid'}, {'column': 'caseid'}, {'predicate': '1'}, {'column': 'vehno'}, {'column': 'vehno'}, {'composite-key-join': '1'}, {'group by': '1'}, {'column': 'make'}, {'order by': '1'}, {'column': 'fire_proportion'}]</t>
         </is>
       </c>
     </row>
